--- a/Data Science/LCS/Players/Altec.xlsx
+++ b/Data Science/LCS/Players/Altec.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="102">
+  <si>
+    <t>datacompleteness</t>
+  </si>
   <si>
     <t>league</t>
   </si>
   <si>
+    <t>year</t>
+  </si>
+  <si>
+    <t>playoffs</t>
+  </si>
+  <si>
     <t>game</t>
   </si>
   <si>
@@ -106,15 +115,15 @@
     <t>opp_elementaldrakes</t>
   </si>
   <si>
-    <t>dragons (type unknown)</t>
-  </si>
-  <si>
     <t>elders</t>
   </si>
   <si>
     <t>opp_elders</t>
   </si>
   <si>
+    <t>firstherald</t>
+  </si>
+  <si>
     <t>heralds</t>
   </si>
   <si>
@@ -271,6 +280,9 @@
     <t>csdiffat15</t>
   </si>
   <si>
+    <t>complete</t>
+  </si>
+  <si>
     <t>LCS</t>
   </si>
   <si>
@@ -302,6 +314,12 @@
   </si>
   <si>
     <t>Miss Fortune</t>
+  </si>
+  <si>
+    <t>Kai'Sa</t>
+  </si>
+  <si>
+    <t>Kalista</t>
   </si>
 </sst>
 </file>
@@ -659,13 +677,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:CH11"/>
+  <dimension ref="A1:CK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:86">
+    <row r="1" spans="1:89">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -921,95 +939,104 @@
       <c r="CH1" s="1" t="s">
         <v>84</v>
       </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
     </row>
-    <row r="2" spans="1:86">
+    <row r="2" spans="1:89">
       <c r="A2" s="1">
-        <v>687</v>
+        <v>903</v>
       </c>
       <c r="B2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C2">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2">
+        <v>2020</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>10.01</v>
-      </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F2" t="s">
-        <v>88</v>
-      </c>
-      <c r="G2" t="s">
-        <v>89</v>
       </c>
       <c r="H2" t="s">
         <v>90</v>
       </c>
       <c r="I2" t="s">
-        <v>91</v>
-      </c>
-      <c r="J2">
+        <v>92</v>
+      </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
+      <c r="K2" t="s">
+        <v>94</v>
+      </c>
+      <c r="L2" t="s">
+        <v>95</v>
+      </c>
+      <c r="M2">
         <v>2312</v>
       </c>
-      <c r="K2">
-        <v>0</v>
-      </c>
-      <c r="L2">
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
         <v>4</v>
       </c>
-      <c r="M2">
+      <c r="P2">
         <v>3</v>
       </c>
-      <c r="N2">
+      <c r="Q2">
         <v>3</v>
       </c>
-      <c r="O2">
+      <c r="R2">
         <v>8</v>
       </c>
-      <c r="P2">
+      <c r="S2">
         <v>21</v>
       </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
-      </c>
-      <c r="S2">
-        <v>0</v>
-      </c>
       <c r="T2">
         <v>0</v>
       </c>
       <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>0</v>
+      </c>
+      <c r="X2">
         <v>1</v>
       </c>
-      <c r="V2">
-        <v>0</v>
-      </c>
-      <c r="W2">
+      <c r="Y2">
+        <v>0</v>
+      </c>
+      <c r="Z2">
         <v>1</v>
       </c>
-      <c r="X2">
-        <v>0</v>
-      </c>
-      <c r="Y2">
+      <c r="AA2">
+        <v>0</v>
+      </c>
+      <c r="AB2">
         <v>0.2076</v>
       </c>
-      <c r="Z2">
+      <c r="AC2">
         <v>0.7526</v>
       </c>
-      <c r="AA2">
-        <v>0</v>
-      </c>
-      <c r="AB2">
-        <v>0</v>
-      </c>
-      <c r="AC2">
-        <v>0</v>
-      </c>
       <c r="AD2">
         <v>0</v>
       </c>
@@ -1062,184 +1089,193 @@
         <v>0</v>
       </c>
       <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
         <v>10614</v>
       </c>
-      <c r="AV2">
+      <c r="AY2">
         <v>275.4498</v>
       </c>
-      <c r="AW2">
+      <c r="AZ2">
         <v>0.257709</v>
       </c>
-      <c r="AX2">
+      <c r="BA2">
         <v>19</v>
       </c>
-      <c r="AY2">
+      <c r="BB2">
         <v>0.4931</v>
       </c>
-      <c r="AZ2">
+      <c r="BC2">
         <v>10</v>
       </c>
-      <c r="BA2">
+      <c r="BD2">
         <v>0.2595</v>
       </c>
-      <c r="BB2">
+      <c r="BE2">
         <v>7</v>
       </c>
-      <c r="BC2">
+      <c r="BF2">
         <v>52</v>
       </c>
-      <c r="BD2">
+      <c r="BG2">
         <v>1.3495</v>
       </c>
-      <c r="BE2">
+      <c r="BH2">
         <v>15282</v>
       </c>
-      <c r="BF2">
+      <c r="BI2">
         <v>10290</v>
       </c>
-      <c r="BG2">
+      <c r="BJ2">
         <v>267.0415</v>
       </c>
-      <c r="BH2">
+      <c r="BK2">
         <v>0.300273</v>
       </c>
-      <c r="BI2">
+      <c r="BL2">
         <v>14575</v>
       </c>
-      <c r="BJ2">
-        <v>0</v>
-      </c>
-      <c r="BK2">
+      <c r="BM2">
+        <v>0</v>
+      </c>
+      <c r="BN2">
         <v>324</v>
       </c>
-      <c r="BL2">
+      <c r="BO2">
         <v>305</v>
       </c>
-      <c r="BM2">
+      <c r="BP2">
         <v>19</v>
       </c>
-      <c r="BN2">
+      <c r="BQ2">
         <v>16</v>
       </c>
-      <c r="BO2">
+      <c r="BR2">
         <v>2</v>
       </c>
-      <c r="BP2">
+      <c r="BS2">
         <v>8.408300000000001</v>
       </c>
-      <c r="BQ2">
+      <c r="BT2">
         <v>3368</v>
       </c>
-      <c r="BR2">
+      <c r="BU2">
         <v>3090</v>
-      </c>
-      <c r="BS2">
-        <v>76</v>
-      </c>
-      <c r="BT2">
-        <v>3177</v>
-      </c>
-      <c r="BU2">
-        <v>3511</v>
       </c>
       <c r="BV2">
         <v>76</v>
       </c>
       <c r="BW2">
+        <v>3177</v>
+      </c>
+      <c r="BX2">
+        <v>3511</v>
+      </c>
+      <c r="BY2">
+        <v>76</v>
+      </c>
+      <c r="BZ2">
         <v>191</v>
       </c>
-      <c r="BX2">
+      <c r="CA2">
         <v>-421</v>
       </c>
-      <c r="BY2">
-        <v>0</v>
-      </c>
-      <c r="BZ2">
+      <c r="CB2">
+        <v>0</v>
+      </c>
+      <c r="CC2">
         <v>5342</v>
       </c>
-      <c r="CA2">
+      <c r="CD2">
         <v>4803</v>
       </c>
-      <c r="CB2">
+      <c r="CE2">
         <v>113</v>
       </c>
-      <c r="CC2">
+      <c r="CF2">
         <v>4379</v>
       </c>
-      <c r="CD2">
+      <c r="CG2">
         <v>5601</v>
       </c>
-      <c r="CE2">
+      <c r="CH2">
         <v>108</v>
       </c>
-      <c r="CF2">
+      <c r="CI2">
         <v>963</v>
       </c>
-      <c r="CG2">
+      <c r="CJ2">
         <v>-798</v>
       </c>
-      <c r="CH2">
+      <c r="CK2">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:86">
+    <row r="3" spans="1:89">
       <c r="A3" s="1">
-        <v>776</v>
+        <v>992</v>
       </c>
       <c r="B3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C3">
+        <v>88</v>
+      </c>
+      <c r="C3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3">
+        <v>2020</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="G3">
         <v>10.01</v>
       </c>
-      <c r="E3" t="s">
-        <v>87</v>
-      </c>
-      <c r="F3" t="s">
-        <v>88</v>
-      </c>
-      <c r="G3" t="s">
-        <v>89</v>
-      </c>
       <c r="H3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I3" t="s">
         <v>92</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="s">
+        <v>93</v>
+      </c>
+      <c r="K3" t="s">
+        <v>94</v>
+      </c>
+      <c r="L3" t="s">
+        <v>96</v>
+      </c>
+      <c r="M3">
         <v>3680</v>
       </c>
-      <c r="K3">
+      <c r="N3">
         <v>1</v>
       </c>
-      <c r="L3">
+      <c r="O3">
         <v>4</v>
       </c>
-      <c r="M3">
-        <v>0</v>
-      </c>
-      <c r="N3">
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
         <v>2</v>
       </c>
-      <c r="O3">
+      <c r="R3">
         <v>9</v>
       </c>
-      <c r="P3">
+      <c r="S3">
         <v>9</v>
       </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
-      <c r="S3">
-        <v>0</v>
-      </c>
       <c r="T3">
         <v>0</v>
       </c>
@@ -1256,20 +1292,20 @@
         <v>0</v>
       </c>
       <c r="Y3">
+        <v>0</v>
+      </c>
+      <c r="Z3">
+        <v>0</v>
+      </c>
+      <c r="AA3">
+        <v>0</v>
+      </c>
+      <c r="AB3">
         <v>0.1467</v>
       </c>
-      <c r="Z3">
+      <c r="AC3">
         <v>0.2935</v>
       </c>
-      <c r="AA3">
-        <v>0</v>
-      </c>
-      <c r="AB3">
-        <v>0</v>
-      </c>
-      <c r="AC3">
-        <v>0</v>
-      </c>
       <c r="AD3">
         <v>0</v>
       </c>
@@ -1316,456 +1352,474 @@
         <v>0</v>
       </c>
       <c r="AS3">
+        <v>0</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
         <v>2</v>
       </c>
-      <c r="AT3">
-        <v>0</v>
-      </c>
-      <c r="AU3">
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
         <v>49118</v>
       </c>
-      <c r="AV3">
+      <c r="AY3">
         <v>800.837</v>
       </c>
-      <c r="AW3">
+      <c r="AZ3">
         <v>0.387708</v>
       </c>
-      <c r="AX3">
+      <c r="BA3">
         <v>26</v>
       </c>
-      <c r="AY3">
+      <c r="BB3">
         <v>0.4239</v>
       </c>
-      <c r="AZ3">
+      <c r="BC3">
         <v>24</v>
       </c>
-      <c r="BA3">
+      <c r="BD3">
         <v>0.3913</v>
       </c>
-      <c r="BB3">
+      <c r="BE3">
         <v>5</v>
       </c>
-      <c r="BC3">
+      <c r="BF3">
         <v>69</v>
       </c>
-      <c r="BD3">
+      <c r="BG3">
         <v>1.125</v>
       </c>
-      <c r="BE3">
+      <c r="BH3">
         <v>24942</v>
       </c>
-      <c r="BF3">
+      <c r="BI3">
         <v>17159</v>
       </c>
-      <c r="BG3">
+      <c r="BJ3">
         <v>279.7663</v>
       </c>
-      <c r="BH3">
+      <c r="BK3">
         <v>0.297675</v>
       </c>
-      <c r="BI3">
+      <c r="BL3">
         <v>23668</v>
       </c>
-      <c r="BJ3">
-        <v>0</v>
-      </c>
-      <c r="BK3">
+      <c r="BM3">
+        <v>0</v>
+      </c>
+      <c r="BN3">
         <v>556</v>
       </c>
-      <c r="BL3">
+      <c r="BO3">
         <v>487</v>
       </c>
-      <c r="BM3">
+      <c r="BP3">
         <v>69</v>
       </c>
-      <c r="BN3">
+      <c r="BQ3">
         <v>42</v>
       </c>
-      <c r="BO3">
+      <c r="BR3">
         <v>10</v>
       </c>
-      <c r="BP3">
+      <c r="BS3">
         <v>9.065200000000001</v>
       </c>
-      <c r="BQ3">
+      <c r="BT3">
         <v>3076</v>
       </c>
-      <c r="BR3">
+      <c r="BU3">
         <v>2820</v>
       </c>
-      <c r="BS3">
+      <c r="BV3">
         <v>76</v>
       </c>
-      <c r="BT3">
+      <c r="BW3">
         <v>3357</v>
       </c>
-      <c r="BU3">
+      <c r="BX3">
         <v>3002</v>
       </c>
-      <c r="BV3">
+      <c r="BY3">
         <v>91</v>
       </c>
-      <c r="BW3">
+      <c r="BZ3">
         <v>-281</v>
       </c>
-      <c r="BX3">
+      <c r="CA3">
         <v>-182</v>
       </c>
-      <c r="BY3">
+      <c r="CB3">
         <v>-15</v>
       </c>
-      <c r="BZ3">
+      <c r="CC3">
         <v>4710</v>
       </c>
-      <c r="CA3">
+      <c r="CD3">
         <v>4422</v>
       </c>
-      <c r="CB3">
+      <c r="CE3">
         <v>121</v>
       </c>
-      <c r="CC3">
+      <c r="CF3">
         <v>6362</v>
       </c>
-      <c r="CD3">
+      <c r="CG3">
         <v>5360</v>
       </c>
-      <c r="CE3">
+      <c r="CH3">
         <v>147</v>
       </c>
-      <c r="CF3">
+      <c r="CI3">
         <v>-1652</v>
       </c>
-      <c r="CG3">
+      <c r="CJ3">
         <v>-938</v>
       </c>
-      <c r="CH3">
+      <c r="CK3">
         <v>-26</v>
       </c>
     </row>
-    <row r="4" spans="1:86">
+    <row r="4" spans="1:89">
       <c r="A4" s="1">
-        <v>1184</v>
+        <v>1712</v>
       </c>
       <c r="B4" t="s">
-        <v>85</v>
-      </c>
-      <c r="C4">
+        <v>88</v>
+      </c>
+      <c r="C4" t="s">
+        <v>89</v>
+      </c>
+      <c r="D4">
+        <v>2020</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
         <v>1</v>
       </c>
-      <c r="D4">
+      <c r="G4">
         <v>10.02</v>
       </c>
-      <c r="E4" t="s">
-        <v>87</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="H4" t="s">
+        <v>91</v>
+      </c>
+      <c r="I4" t="s">
+        <v>92</v>
+      </c>
+      <c r="J4" t="s">
+        <v>93</v>
+      </c>
+      <c r="K4" t="s">
+        <v>94</v>
+      </c>
+      <c r="L4" t="s">
+        <v>95</v>
+      </c>
+      <c r="M4">
+        <v>1788</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>4</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>3</v>
+      </c>
+      <c r="S4">
+        <v>15</v>
+      </c>
+      <c r="T4">
+        <v>0</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>0</v>
+      </c>
+      <c r="X4">
+        <v>0</v>
+      </c>
+      <c r="Y4">
+        <v>0</v>
+      </c>
+      <c r="Z4">
+        <v>0</v>
+      </c>
+      <c r="AA4">
+        <v>0</v>
+      </c>
+      <c r="AB4">
+        <v>0.1007</v>
+      </c>
+      <c r="AC4">
+        <v>0.604</v>
+      </c>
+      <c r="AD4">
+        <v>0</v>
+      </c>
+      <c r="AE4">
+        <v>0</v>
+      </c>
+      <c r="AF4">
+        <v>0</v>
+      </c>
+      <c r="AG4">
+        <v>0</v>
+      </c>
+      <c r="AH4">
+        <v>0</v>
+      </c>
+      <c r="AI4">
+        <v>0</v>
+      </c>
+      <c r="AJ4">
+        <v>0</v>
+      </c>
+      <c r="AK4">
+        <v>0</v>
+      </c>
+      <c r="AL4">
+        <v>0</v>
+      </c>
+      <c r="AM4">
+        <v>0</v>
+      </c>
+      <c r="AN4">
+        <v>0</v>
+      </c>
+      <c r="AO4">
+        <v>0</v>
+      </c>
+      <c r="AP4">
+        <v>0</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>0</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>9230</v>
+      </c>
+      <c r="AY4">
+        <v>309.7315</v>
+      </c>
+      <c r="AZ4">
+        <v>0.350991</v>
+      </c>
+      <c r="BA4">
+        <v>14</v>
+      </c>
+      <c r="BB4">
+        <v>0.4698</v>
+      </c>
+      <c r="BC4">
+        <v>8</v>
+      </c>
+      <c r="BD4">
+        <v>0.2685</v>
+      </c>
+      <c r="BE4">
+        <v>7</v>
+      </c>
+      <c r="BF4">
+        <v>28</v>
+      </c>
+      <c r="BG4">
+        <v>0.9396</v>
+      </c>
+      <c r="BH4">
+        <v>9785</v>
+      </c>
+      <c r="BI4">
+        <v>5862</v>
+      </c>
+      <c r="BJ4">
+        <v>196.7114</v>
+      </c>
+      <c r="BK4">
+        <v>0.248549</v>
+      </c>
+      <c r="BL4">
+        <v>8820</v>
+      </c>
+      <c r="BM4">
+        <v>0</v>
+      </c>
+      <c r="BN4">
+        <v>224</v>
+      </c>
+      <c r="BO4">
+        <v>224</v>
+      </c>
+      <c r="BP4">
+        <v>0</v>
+      </c>
+      <c r="BQ4">
+        <v>0</v>
+      </c>
+      <c r="BR4">
+        <v>0</v>
+      </c>
+      <c r="BS4">
+        <v>7.5168</v>
+      </c>
+      <c r="BT4">
+        <v>3001</v>
+      </c>
+      <c r="BU4">
+        <v>2673</v>
+      </c>
+      <c r="BV4">
+        <v>72</v>
+      </c>
+      <c r="BW4">
+        <v>3554</v>
+      </c>
+      <c r="BX4">
+        <v>2974</v>
+      </c>
+      <c r="BY4">
+        <v>84</v>
+      </c>
+      <c r="BZ4">
+        <v>-553</v>
+      </c>
+      <c r="CA4">
+        <v>-301</v>
+      </c>
+      <c r="CB4">
+        <v>-12</v>
+      </c>
+      <c r="CC4">
+        <v>4557</v>
+      </c>
+      <c r="CD4">
+        <v>4393</v>
+      </c>
+      <c r="CE4">
+        <v>114</v>
+      </c>
+      <c r="CF4">
+        <v>6102</v>
+      </c>
+      <c r="CG4">
+        <v>5699</v>
+      </c>
+      <c r="CH4">
+        <v>144</v>
+      </c>
+      <c r="CI4">
+        <v>-1545</v>
+      </c>
+      <c r="CJ4">
+        <v>-1306</v>
+      </c>
+      <c r="CK4">
+        <v>-30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:89">
+      <c r="A5" s="1">
+        <v>1923</v>
+      </c>
+      <c r="B5" t="s">
         <v>88</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C5" t="s">
         <v>89</v>
       </c>
-      <c r="H4" t="s">
-        <v>90</v>
-      </c>
-      <c r="I4" t="s">
-        <v>91</v>
-      </c>
-      <c r="J4">
-        <v>1788</v>
-      </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
-      <c r="L4">
+      <c r="D5">
+        <v>2020</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
         <v>1</v>
       </c>
-      <c r="M4">
-        <v>4</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>3</v>
-      </c>
-      <c r="P4">
-        <v>15</v>
-      </c>
-      <c r="Q4">
-        <v>0</v>
-      </c>
-      <c r="R4">
-        <v>0</v>
-      </c>
-      <c r="S4">
-        <v>0</v>
-      </c>
-      <c r="T4">
-        <v>0</v>
-      </c>
-      <c r="U4">
-        <v>0</v>
-      </c>
-      <c r="V4">
-        <v>0</v>
-      </c>
-      <c r="W4">
-        <v>0</v>
-      </c>
-      <c r="X4">
-        <v>0</v>
-      </c>
-      <c r="Y4">
-        <v>0.1007</v>
-      </c>
-      <c r="Z4">
-        <v>0.604</v>
-      </c>
-      <c r="AA4">
-        <v>0</v>
-      </c>
-      <c r="AB4">
-        <v>0</v>
-      </c>
-      <c r="AC4">
-        <v>0</v>
-      </c>
-      <c r="AD4">
-        <v>0</v>
-      </c>
-      <c r="AE4">
-        <v>0</v>
-      </c>
-      <c r="AF4">
-        <v>0</v>
-      </c>
-      <c r="AG4">
-        <v>0</v>
-      </c>
-      <c r="AH4">
-        <v>0</v>
-      </c>
-      <c r="AI4">
-        <v>0</v>
-      </c>
-      <c r="AJ4">
-        <v>0</v>
-      </c>
-      <c r="AK4">
-        <v>0</v>
-      </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
-        <v>0</v>
-      </c>
-      <c r="AN4">
-        <v>0</v>
-      </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
-        <v>0</v>
-      </c>
-      <c r="AR4">
-        <v>0</v>
-      </c>
-      <c r="AS4">
-        <v>0</v>
-      </c>
-      <c r="AT4">
-        <v>0</v>
-      </c>
-      <c r="AU4">
-        <v>9230</v>
-      </c>
-      <c r="AV4">
-        <v>309.7315</v>
-      </c>
-      <c r="AW4">
-        <v>0.350991</v>
-      </c>
-      <c r="AX4">
-        <v>14</v>
-      </c>
-      <c r="AY4">
-        <v>0.4698</v>
-      </c>
-      <c r="AZ4">
-        <v>8</v>
-      </c>
-      <c r="BA4">
-        <v>0.2685</v>
-      </c>
-      <c r="BB4">
-        <v>7</v>
-      </c>
-      <c r="BC4">
-        <v>28</v>
-      </c>
-      <c r="BD4">
-        <v>0.9396</v>
-      </c>
-      <c r="BE4">
-        <v>9785</v>
-      </c>
-      <c r="BF4">
-        <v>5862</v>
-      </c>
-      <c r="BG4">
-        <v>196.7114</v>
-      </c>
-      <c r="BH4">
-        <v>0.248549</v>
-      </c>
-      <c r="BI4">
-        <v>8820</v>
-      </c>
-      <c r="BJ4">
-        <v>0</v>
-      </c>
-      <c r="BK4">
-        <v>224</v>
-      </c>
-      <c r="BL4">
-        <v>224</v>
-      </c>
-      <c r="BM4">
-        <v>0</v>
-      </c>
-      <c r="BN4">
-        <v>0</v>
-      </c>
-      <c r="BO4">
-        <v>0</v>
-      </c>
-      <c r="BP4">
-        <v>7.5168</v>
-      </c>
-      <c r="BQ4">
-        <v>3001</v>
-      </c>
-      <c r="BR4">
-        <v>2673</v>
-      </c>
-      <c r="BS4">
-        <v>72</v>
-      </c>
-      <c r="BT4">
-        <v>3554</v>
-      </c>
-      <c r="BU4">
-        <v>2974</v>
-      </c>
-      <c r="BV4">
-        <v>84</v>
-      </c>
-      <c r="BW4">
-        <v>-553</v>
-      </c>
-      <c r="BX4">
-        <v>-301</v>
-      </c>
-      <c r="BY4">
-        <v>-12</v>
-      </c>
-      <c r="BZ4">
-        <v>4557</v>
-      </c>
-      <c r="CA4">
-        <v>4393</v>
-      </c>
-      <c r="CB4">
-        <v>114</v>
-      </c>
-      <c r="CC4">
-        <v>6102</v>
-      </c>
-      <c r="CD4">
-        <v>5699</v>
-      </c>
-      <c r="CE4">
-        <v>144</v>
-      </c>
-      <c r="CF4">
-        <v>-1545</v>
-      </c>
-      <c r="CG4">
-        <v>-1306</v>
-      </c>
-      <c r="CH4">
-        <v>-30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:86">
-      <c r="A5" s="1">
-        <v>1347</v>
-      </c>
-      <c r="B5" t="s">
-        <v>85</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
+      <c r="G5">
         <v>10.02</v>
-      </c>
-      <c r="E5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G5" t="s">
-        <v>89</v>
       </c>
       <c r="H5" t="s">
         <v>90</v>
       </c>
       <c r="I5" t="s">
+        <v>92</v>
+      </c>
+      <c r="J5" t="s">
         <v>93</v>
       </c>
-      <c r="J5">
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+      <c r="L5" t="s">
+        <v>97</v>
+      </c>
+      <c r="M5">
         <v>1888</v>
       </c>
-      <c r="K5">
+      <c r="N5">
         <v>1</v>
       </c>
-      <c r="L5">
+      <c r="O5">
         <v>8</v>
       </c>
-      <c r="M5">
-        <v>0</v>
-      </c>
-      <c r="N5">
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
         <v>5</v>
       </c>
-      <c r="O5">
+      <c r="R5">
         <v>14</v>
       </c>
-      <c r="P5">
+      <c r="S5">
         <v>3</v>
       </c>
-      <c r="Q5">
+      <c r="T5">
         <v>1</v>
       </c>
-      <c r="R5">
+      <c r="U5">
         <v>1</v>
       </c>
-      <c r="S5">
-        <v>0</v>
-      </c>
-      <c r="T5">
-        <v>0</v>
-      </c>
-      <c r="U5">
-        <v>0</v>
-      </c>
       <c r="V5">
         <v>0</v>
       </c>
@@ -1776,20 +1830,20 @@
         <v>0</v>
       </c>
       <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
         <v>0.4449</v>
       </c>
-      <c r="Z5">
+      <c r="AC5">
         <v>0.5403</v>
       </c>
-      <c r="AA5">
-        <v>0</v>
-      </c>
-      <c r="AB5">
-        <v>0</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
       <c r="AD5">
         <v>0</v>
       </c>
@@ -1842,184 +1896,193 @@
         <v>0</v>
       </c>
       <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
         <v>24371</v>
       </c>
-      <c r="AV5">
+      <c r="AY5">
         <v>774.5021</v>
       </c>
-      <c r="AW5">
+      <c r="AZ5">
         <v>0.379942</v>
       </c>
-      <c r="AX5">
+      <c r="BA5">
         <v>16</v>
       </c>
-      <c r="AY5">
+      <c r="BB5">
         <v>0.5085</v>
       </c>
-      <c r="AZ5">
+      <c r="BC5">
         <v>7</v>
       </c>
-      <c r="BA5">
+      <c r="BD5">
         <v>0.2225</v>
       </c>
-      <c r="BB5">
+      <c r="BE5">
         <v>7</v>
       </c>
-      <c r="BC5">
+      <c r="BF5">
         <v>33</v>
       </c>
-      <c r="BD5">
+      <c r="BG5">
         <v>1.0487</v>
       </c>
-      <c r="BE5">
+      <c r="BH5">
         <v>15584</v>
       </c>
-      <c r="BF5">
+      <c r="BI5">
         <v>11457</v>
       </c>
-      <c r="BG5">
+      <c r="BJ5">
         <v>364.0996</v>
       </c>
-      <c r="BH5">
+      <c r="BK5">
         <v>0.311672</v>
       </c>
-      <c r="BI5">
+      <c r="BL5">
         <v>12375</v>
       </c>
-      <c r="BJ5">
-        <v>0</v>
-      </c>
-      <c r="BK5">
+      <c r="BM5">
+        <v>0</v>
+      </c>
+      <c r="BN5">
         <v>317</v>
       </c>
-      <c r="BL5">
+      <c r="BO5">
         <v>292</v>
       </c>
-      <c r="BM5">
+      <c r="BP5">
         <v>25</v>
       </c>
-      <c r="BN5">
+      <c r="BQ5">
         <v>16</v>
       </c>
-      <c r="BO5">
+      <c r="BR5">
         <v>9</v>
       </c>
-      <c r="BP5">
+      <c r="BS5">
         <v>10.0742</v>
       </c>
-      <c r="BQ5">
+      <c r="BT5">
         <v>2982</v>
       </c>
-      <c r="BR5">
+      <c r="BU5">
         <v>3250</v>
       </c>
-      <c r="BS5">
+      <c r="BV5">
         <v>69</v>
       </c>
-      <c r="BT5">
+      <c r="BW5">
         <v>3328</v>
       </c>
-      <c r="BU5">
+      <c r="BX5">
         <v>3019</v>
       </c>
-      <c r="BV5">
+      <c r="BY5">
         <v>88</v>
       </c>
-      <c r="BW5">
+      <c r="BZ5">
         <v>-346</v>
       </c>
-      <c r="BX5">
+      <c r="CA5">
         <v>231</v>
       </c>
-      <c r="BY5">
+      <c r="CB5">
         <v>-19</v>
       </c>
-      <c r="BZ5">
+      <c r="CC5">
         <v>5282</v>
       </c>
-      <c r="CA5">
+      <c r="CD5">
         <v>5559</v>
       </c>
-      <c r="CB5">
+      <c r="CE5">
         <v>114</v>
       </c>
-      <c r="CC5">
+      <c r="CF5">
         <v>5469</v>
       </c>
-      <c r="CD5">
+      <c r="CG5">
         <v>5480</v>
       </c>
-      <c r="CE5">
+      <c r="CH5">
         <v>146</v>
       </c>
-      <c r="CF5">
+      <c r="CI5">
         <v>-187</v>
       </c>
-      <c r="CG5">
+      <c r="CJ5">
         <v>79</v>
       </c>
-      <c r="CH5">
+      <c r="CK5">
         <v>-32</v>
       </c>
     </row>
-    <row r="6" spans="1:86">
+    <row r="6" spans="1:89">
       <c r="A6" s="1">
-        <v>2175</v>
+        <v>3591</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
-      </c>
-      <c r="C6">
+        <v>88</v>
+      </c>
+      <c r="C6" t="s">
+        <v>89</v>
+      </c>
+      <c r="D6">
+        <v>2020</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="D6">
+      <c r="G6">
         <v>10.02</v>
-      </c>
-      <c r="E6" t="s">
-        <v>86</v>
-      </c>
-      <c r="F6" t="s">
-        <v>88</v>
-      </c>
-      <c r="G6" t="s">
-        <v>89</v>
       </c>
       <c r="H6" t="s">
         <v>90</v>
       </c>
       <c r="I6" t="s">
+        <v>92</v>
+      </c>
+      <c r="J6" t="s">
+        <v>93</v>
+      </c>
+      <c r="K6" t="s">
         <v>94</v>
       </c>
-      <c r="J6">
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6">
         <v>2164</v>
       </c>
-      <c r="K6">
+      <c r="N6">
         <v>1</v>
       </c>
-      <c r="L6">
+      <c r="O6">
         <v>3</v>
       </c>
-      <c r="M6">
-        <v>0</v>
-      </c>
-      <c r="N6">
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
         <v>7</v>
       </c>
-      <c r="O6">
+      <c r="R6">
         <v>17</v>
       </c>
-      <c r="P6">
+      <c r="S6">
         <v>6</v>
       </c>
-      <c r="Q6">
-        <v>0</v>
-      </c>
-      <c r="R6">
-        <v>0</v>
-      </c>
-      <c r="S6">
-        <v>0</v>
-      </c>
       <c r="T6">
         <v>0</v>
       </c>
@@ -2036,20 +2099,20 @@
         <v>0</v>
       </c>
       <c r="Y6">
+        <v>0</v>
+      </c>
+      <c r="Z6">
+        <v>0</v>
+      </c>
+      <c r="AA6">
+        <v>0</v>
+      </c>
+      <c r="AB6">
         <v>0.4713</v>
       </c>
-      <c r="Z6">
+      <c r="AC6">
         <v>0.6377</v>
       </c>
-      <c r="AA6">
-        <v>0</v>
-      </c>
-      <c r="AB6">
-        <v>0</v>
-      </c>
-      <c r="AC6">
-        <v>0</v>
-      </c>
       <c r="AD6">
         <v>0</v>
       </c>
@@ -2096,450 +2159,468 @@
         <v>0</v>
       </c>
       <c r="AS6">
+        <v>0</v>
+      </c>
+      <c r="AT6">
+        <v>0</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
         <v>1</v>
       </c>
-      <c r="AT6">
-        <v>0</v>
-      </c>
-      <c r="AU6">
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
         <v>24349</v>
       </c>
-      <c r="AV6">
+      <c r="AY6">
         <v>675.1109</v>
       </c>
-      <c r="AW6">
+      <c r="AZ6">
         <v>0.298515</v>
       </c>
-      <c r="AX6">
+      <c r="BA6">
         <v>22</v>
       </c>
-      <c r="AY6">
+      <c r="BB6">
         <v>0.61</v>
       </c>
-      <c r="AZ6">
+      <c r="BC6">
         <v>17</v>
       </c>
-      <c r="BA6">
+      <c r="BD6">
         <v>0.4713</v>
       </c>
-      <c r="BB6">
+      <c r="BE6">
         <v>10</v>
       </c>
-      <c r="BC6">
+      <c r="BF6">
         <v>57</v>
       </c>
-      <c r="BD6">
+      <c r="BG6">
         <v>1.5804</v>
       </c>
-      <c r="BE6">
+      <c r="BH6">
         <v>17230</v>
       </c>
-      <c r="BF6">
+      <c r="BI6">
         <v>12540</v>
       </c>
-      <c r="BG6">
+      <c r="BJ6">
         <v>347.6895</v>
       </c>
-      <c r="BH6">
+      <c r="BK6">
         <v>0.29713</v>
       </c>
-      <c r="BI6">
+      <c r="BL6">
         <v>15300</v>
       </c>
-      <c r="BJ6">
-        <v>0</v>
-      </c>
-      <c r="BK6">
+      <c r="BM6">
+        <v>0</v>
+      </c>
+      <c r="BN6">
         <v>368</v>
       </c>
-      <c r="BL6">
+      <c r="BO6">
         <v>310</v>
       </c>
-      <c r="BM6">
+      <c r="BP6">
         <v>58</v>
       </c>
-      <c r="BN6">
+      <c r="BQ6">
         <v>31</v>
       </c>
-      <c r="BO6">
+      <c r="BR6">
         <v>14</v>
       </c>
-      <c r="BP6">
+      <c r="BS6">
         <v>10.2033</v>
       </c>
-      <c r="BQ6">
+      <c r="BT6">
         <v>3285</v>
       </c>
-      <c r="BR6">
+      <c r="BU6">
         <v>3062</v>
       </c>
-      <c r="BS6">
+      <c r="BV6">
         <v>89</v>
       </c>
-      <c r="BT6">
+      <c r="BW6">
         <v>3443</v>
       </c>
-      <c r="BU6">
+      <c r="BX6">
         <v>3536</v>
       </c>
-      <c r="BV6">
+      <c r="BY6">
         <v>95</v>
       </c>
-      <c r="BW6">
+      <c r="BZ6">
         <v>-158</v>
       </c>
-      <c r="BX6">
+      <c r="CA6">
         <v>-474</v>
       </c>
-      <c r="BY6">
+      <c r="CB6">
         <v>-6</v>
       </c>
-      <c r="BZ6">
+      <c r="CC6">
         <v>6242</v>
       </c>
-      <c r="CA6">
+      <c r="CD6">
         <v>5844</v>
       </c>
-      <c r="CB6">
+      <c r="CE6">
         <v>146</v>
       </c>
-      <c r="CC6">
+      <c r="CF6">
         <v>5102</v>
       </c>
-      <c r="CD6">
+      <c r="CG6">
         <v>6081</v>
       </c>
-      <c r="CE6">
+      <c r="CH6">
         <v>142</v>
       </c>
-      <c r="CF6">
+      <c r="CI6">
         <v>1140</v>
       </c>
-      <c r="CG6">
+      <c r="CJ6">
         <v>-237</v>
       </c>
-      <c r="CH6">
+      <c r="CK6">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:86">
+    <row r="7" spans="1:89">
       <c r="A7" s="1">
-        <v>2288</v>
+        <v>3752</v>
       </c>
       <c r="B7" t="s">
-        <v>85</v>
-      </c>
-      <c r="C7">
+        <v>88</v>
+      </c>
+      <c r="C7" t="s">
+        <v>89</v>
+      </c>
+      <c r="D7">
+        <v>2020</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="G7">
         <v>10.02</v>
       </c>
-      <c r="E7" t="s">
-        <v>87</v>
-      </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
+        <v>91</v>
+      </c>
+      <c r="I7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J7" t="s">
+        <v>93</v>
+      </c>
+      <c r="K7" t="s">
+        <v>94</v>
+      </c>
+      <c r="L7" t="s">
+        <v>97</v>
+      </c>
+      <c r="M7">
+        <v>2438</v>
+      </c>
+      <c r="N7">
+        <v>1</v>
+      </c>
+      <c r="O7">
+        <v>5</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7">
+        <v>8</v>
+      </c>
+      <c r="S7">
+        <v>9</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0.1969</v>
+      </c>
+      <c r="AC7">
+        <v>0.4184</v>
+      </c>
+      <c r="AD7">
+        <v>0</v>
+      </c>
+      <c r="AE7">
+        <v>0</v>
+      </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
+      <c r="AI7">
+        <v>0</v>
+      </c>
+      <c r="AJ7">
+        <v>0</v>
+      </c>
+      <c r="AK7">
+        <v>0</v>
+      </c>
+      <c r="AL7">
+        <v>0</v>
+      </c>
+      <c r="AM7">
+        <v>0</v>
+      </c>
+      <c r="AN7">
+        <v>0</v>
+      </c>
+      <c r="AO7">
+        <v>0</v>
+      </c>
+      <c r="AP7">
+        <v>0</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>0</v>
+      </c>
+      <c r="AT7">
+        <v>0</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>0</v>
+      </c>
+      <c r="AW7">
+        <v>0</v>
+      </c>
+      <c r="AX7">
+        <v>15873</v>
+      </c>
+      <c r="AY7">
+        <v>390.6399</v>
+      </c>
+      <c r="AZ7">
+        <v>0.303958</v>
+      </c>
+      <c r="BA7">
+        <v>22</v>
+      </c>
+      <c r="BB7">
+        <v>0.5414</v>
+      </c>
+      <c r="BC7">
+        <v>14</v>
+      </c>
+      <c r="BD7">
+        <v>0.3445</v>
+      </c>
+      <c r="BE7">
+        <v>10</v>
+      </c>
+      <c r="BF7">
+        <v>55</v>
+      </c>
+      <c r="BG7">
+        <v>1.3536</v>
+      </c>
+      <c r="BH7">
+        <v>17700</v>
+      </c>
+      <c r="BI7">
+        <v>12451</v>
+      </c>
+      <c r="BJ7">
+        <v>306.4233</v>
+      </c>
+      <c r="BK7">
+        <v>0.328985</v>
+      </c>
+      <c r="BL7">
+        <v>16150</v>
+      </c>
+      <c r="BM7">
+        <v>0</v>
+      </c>
+      <c r="BN7">
+        <v>404</v>
+      </c>
+      <c r="BO7">
+        <v>368</v>
+      </c>
+      <c r="BP7">
+        <v>36</v>
+      </c>
+      <c r="BQ7">
+        <v>28</v>
+      </c>
+      <c r="BR7">
+        <v>4</v>
+      </c>
+      <c r="BS7">
+        <v>9.942600000000001</v>
+      </c>
+      <c r="BT7">
+        <v>3168</v>
+      </c>
+      <c r="BU7">
+        <v>3267</v>
+      </c>
+      <c r="BV7">
+        <v>82</v>
+      </c>
+      <c r="BW7">
+        <v>3853</v>
+      </c>
+      <c r="BX7">
+        <v>3661</v>
+      </c>
+      <c r="BY7">
+        <v>100</v>
+      </c>
+      <c r="BZ7">
+        <v>-685</v>
+      </c>
+      <c r="CA7">
+        <v>-394</v>
+      </c>
+      <c r="CB7">
+        <v>-18</v>
+      </c>
+      <c r="CC7">
+        <v>6038</v>
+      </c>
+      <c r="CD7">
+        <v>6192</v>
+      </c>
+      <c r="CE7">
+        <v>142</v>
+      </c>
+      <c r="CF7">
+        <v>5663</v>
+      </c>
+      <c r="CG7">
+        <v>6186</v>
+      </c>
+      <c r="CH7">
+        <v>160</v>
+      </c>
+      <c r="CI7">
+        <v>375</v>
+      </c>
+      <c r="CJ7">
+        <v>6</v>
+      </c>
+      <c r="CK7">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:89">
+      <c r="A8" s="1">
+        <v>4976</v>
+      </c>
+      <c r="B8" t="s">
         <v>88</v>
       </c>
-      <c r="G7" t="s">
+      <c r="C8" t="s">
         <v>89</v>
       </c>
-      <c r="H7" t="s">
-        <v>90</v>
-      </c>
-      <c r="I7" t="s">
-        <v>93</v>
-      </c>
-      <c r="J7">
-        <v>2438</v>
-      </c>
-      <c r="K7">
+      <c r="D8">
+        <v>2020</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
         <v>1</v>
       </c>
-      <c r="L7">
-        <v>5</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>2</v>
-      </c>
-      <c r="O7">
-        <v>8</v>
-      </c>
-      <c r="P7">
-        <v>9</v>
-      </c>
-      <c r="Q7">
-        <v>0</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>0</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0.1969</v>
-      </c>
-      <c r="Z7">
-        <v>0.4184</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>0</v>
-      </c>
-      <c r="AF7">
-        <v>0</v>
-      </c>
-      <c r="AG7">
-        <v>0</v>
-      </c>
-      <c r="AH7">
-        <v>0</v>
-      </c>
-      <c r="AI7">
-        <v>0</v>
-      </c>
-      <c r="AJ7">
-        <v>0</v>
-      </c>
-      <c r="AK7">
-        <v>0</v>
-      </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
-        <v>0</v>
-      </c>
-      <c r="AN7">
-        <v>0</v>
-      </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
-        <v>0</v>
-      </c>
-      <c r="AR7">
-        <v>0</v>
-      </c>
-      <c r="AS7">
-        <v>0</v>
-      </c>
-      <c r="AT7">
-        <v>0</v>
-      </c>
-      <c r="AU7">
-        <v>15873</v>
-      </c>
-      <c r="AV7">
-        <v>390.6399</v>
-      </c>
-      <c r="AW7">
-        <v>0.303958</v>
-      </c>
-      <c r="AX7">
-        <v>22</v>
-      </c>
-      <c r="AY7">
-        <v>0.5414</v>
-      </c>
-      <c r="AZ7">
-        <v>14</v>
-      </c>
-      <c r="BA7">
-        <v>0.3445</v>
-      </c>
-      <c r="BB7">
-        <v>10</v>
-      </c>
-      <c r="BC7">
-        <v>55</v>
-      </c>
-      <c r="BD7">
-        <v>1.3536</v>
-      </c>
-      <c r="BE7">
-        <v>17700</v>
-      </c>
-      <c r="BF7">
-        <v>12451</v>
-      </c>
-      <c r="BG7">
-        <v>306.4233</v>
-      </c>
-      <c r="BH7">
-        <v>0.328985</v>
-      </c>
-      <c r="BI7">
-        <v>16150</v>
-      </c>
-      <c r="BJ7">
-        <v>0</v>
-      </c>
-      <c r="BK7">
-        <v>404</v>
-      </c>
-      <c r="BL7">
-        <v>368</v>
-      </c>
-      <c r="BM7">
-        <v>36</v>
-      </c>
-      <c r="BN7">
-        <v>28</v>
-      </c>
-      <c r="BO7">
-        <v>4</v>
-      </c>
-      <c r="BP7">
-        <v>9.942600000000001</v>
-      </c>
-      <c r="BQ7">
-        <v>3168</v>
-      </c>
-      <c r="BR7">
-        <v>3267</v>
-      </c>
-      <c r="BS7">
-        <v>82</v>
-      </c>
-      <c r="BT7">
-        <v>3853</v>
-      </c>
-      <c r="BU7">
-        <v>3661</v>
-      </c>
-      <c r="BV7">
-        <v>100</v>
-      </c>
-      <c r="BW7">
-        <v>-685</v>
-      </c>
-      <c r="BX7">
-        <v>-394</v>
-      </c>
-      <c r="BY7">
-        <v>-18</v>
-      </c>
-      <c r="BZ7">
-        <v>6038</v>
-      </c>
-      <c r="CA7">
-        <v>6192</v>
-      </c>
-      <c r="CB7">
-        <v>142</v>
-      </c>
-      <c r="CC7">
-        <v>5663</v>
-      </c>
-      <c r="CD7">
-        <v>6186</v>
-      </c>
-      <c r="CE7">
-        <v>160</v>
-      </c>
-      <c r="CF7">
-        <v>375</v>
-      </c>
-      <c r="CG7">
-        <v>6</v>
-      </c>
-      <c r="CH7">
-        <v>-18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:86">
-      <c r="A8" s="1">
-        <v>2768</v>
-      </c>
-      <c r="B8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
+      <c r="G8">
         <v>10.03</v>
       </c>
-      <c r="E8" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" t="s">
-        <v>89</v>
-      </c>
       <c r="H8" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I8" t="s">
         <v>92</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="s">
+        <v>93</v>
+      </c>
+      <c r="K8" t="s">
+        <v>94</v>
+      </c>
+      <c r="L8" t="s">
+        <v>96</v>
+      </c>
+      <c r="M8">
         <v>2016</v>
       </c>
-      <c r="K8">
+      <c r="N8">
         <v>1</v>
       </c>
-      <c r="L8">
+      <c r="O8">
         <v>2</v>
       </c>
-      <c r="M8">
-        <v>0</v>
-      </c>
-      <c r="N8">
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
         <v>6</v>
       </c>
-      <c r="O8">
+      <c r="R8">
         <v>11</v>
       </c>
-      <c r="P8">
+      <c r="S8">
         <v>1</v>
       </c>
-      <c r="Q8">
-        <v>0</v>
-      </c>
-      <c r="R8">
-        <v>0</v>
-      </c>
-      <c r="S8">
-        <v>0</v>
-      </c>
       <c r="T8">
         <v>0</v>
       </c>
@@ -2556,20 +2637,20 @@
         <v>0</v>
       </c>
       <c r="Y8">
+        <v>0</v>
+      </c>
+      <c r="Z8">
+        <v>0</v>
+      </c>
+      <c r="AA8">
+        <v>0</v>
+      </c>
+      <c r="AB8">
         <v>0.3274</v>
       </c>
-      <c r="Z8">
+      <c r="AC8">
         <v>0.3571</v>
       </c>
-      <c r="AA8">
-        <v>0</v>
-      </c>
-      <c r="AB8">
-        <v>0</v>
-      </c>
-      <c r="AC8">
-        <v>0</v>
-      </c>
       <c r="AD8">
         <v>0</v>
       </c>
@@ -2616,190 +2697,199 @@
         <v>0</v>
       </c>
       <c r="AS8">
+        <v>0</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>0</v>
+      </c>
+      <c r="AV8">
         <v>2</v>
       </c>
-      <c r="AT8">
-        <v>0</v>
-      </c>
-      <c r="AU8">
+      <c r="AW8">
+        <v>0</v>
+      </c>
+      <c r="AX8">
         <v>25763</v>
       </c>
-      <c r="AV8">
-        <v>766.7560000000001</v>
-      </c>
-      <c r="AW8">
+      <c r="AY8">
+        <v>766.756</v>
+      </c>
+      <c r="AZ8">
         <v>0.407817</v>
       </c>
-      <c r="AX8">
+      <c r="BA8">
         <v>18</v>
       </c>
-      <c r="AY8">
+      <c r="BB8">
         <v>0.5357</v>
       </c>
-      <c r="AZ8">
+      <c r="BC8">
         <v>13</v>
       </c>
-      <c r="BA8">
+      <c r="BD8">
         <v>0.3869</v>
       </c>
-      <c r="BB8">
+      <c r="BE8">
         <v>8</v>
       </c>
-      <c r="BC8">
+      <c r="BF8">
         <v>42</v>
       </c>
-      <c r="BD8">
+      <c r="BG8">
         <v>1.25</v>
       </c>
-      <c r="BE8">
+      <c r="BH8">
         <v>13715</v>
       </c>
-      <c r="BF8">
+      <c r="BI8">
         <v>9327</v>
       </c>
-      <c r="BG8">
+      <c r="BJ8">
         <v>277.5893</v>
       </c>
-      <c r="BH8">
+      <c r="BK8">
         <v>0.22894</v>
       </c>
-      <c r="BI8">
+      <c r="BL8">
         <v>12058</v>
       </c>
-      <c r="BJ8">
-        <v>0</v>
-      </c>
-      <c r="BK8">
+      <c r="BM8">
+        <v>0</v>
+      </c>
+      <c r="BN8">
         <v>292</v>
       </c>
-      <c r="BL8">
+      <c r="BO8">
         <v>275</v>
       </c>
-      <c r="BM8">
+      <c r="BP8">
         <v>17</v>
       </c>
-      <c r="BN8">
+      <c r="BQ8">
         <v>12</v>
       </c>
-      <c r="BO8">
+      <c r="BR8">
         <v>5</v>
       </c>
-      <c r="BP8">
+      <c r="BS8">
         <v>8.6905</v>
       </c>
-      <c r="BQ8">
+      <c r="BT8">
         <v>3068</v>
       </c>
-      <c r="BR8">
+      <c r="BU8">
         <v>3002</v>
       </c>
-      <c r="BS8">
+      <c r="BV8">
         <v>81</v>
       </c>
-      <c r="BT8">
+      <c r="BW8">
         <v>3560</v>
       </c>
-      <c r="BU8">
+      <c r="BX8">
         <v>3419</v>
       </c>
-      <c r="BV8">
+      <c r="BY8">
         <v>101</v>
       </c>
-      <c r="BW8">
+      <c r="BZ8">
         <v>-492</v>
       </c>
-      <c r="BX8">
+      <c r="CA8">
         <v>-417</v>
       </c>
-      <c r="BY8">
+      <c r="CB8">
         <v>-20</v>
       </c>
-      <c r="BZ8">
+      <c r="CC8">
         <v>5138</v>
       </c>
-      <c r="CA8">
+      <c r="CD8">
         <v>5805</v>
       </c>
-      <c r="CB8">
+      <c r="CE8">
         <v>136</v>
       </c>
-      <c r="CC8">
+      <c r="CF8">
         <v>5227</v>
       </c>
-      <c r="CD8">
+      <c r="CG8">
         <v>5025</v>
       </c>
-      <c r="CE8">
+      <c r="CH8">
         <v>148</v>
       </c>
-      <c r="CF8">
+      <c r="CI8">
         <v>-89</v>
       </c>
-      <c r="CG8">
+      <c r="CJ8">
         <v>780</v>
       </c>
-      <c r="CH8">
+      <c r="CK8">
         <v>-12</v>
       </c>
     </row>
-    <row r="9" spans="1:86">
+    <row r="9" spans="1:89">
       <c r="A9" s="1">
-        <v>2972</v>
+        <v>5288</v>
       </c>
       <c r="B9" t="s">
-        <v>85</v>
-      </c>
-      <c r="C9">
+        <v>88</v>
+      </c>
+      <c r="C9" t="s">
+        <v>89</v>
+      </c>
+      <c r="D9">
+        <v>2020</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="G9">
         <v>10.03</v>
       </c>
-      <c r="E9" t="s">
-        <v>87</v>
-      </c>
-      <c r="F9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G9" t="s">
-        <v>89</v>
-      </c>
       <c r="H9" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="I9" t="s">
         <v>92</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="s">
+        <v>93</v>
+      </c>
+      <c r="K9" t="s">
+        <v>94</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9">
         <v>2066</v>
       </c>
-      <c r="K9">
-        <v>0</v>
-      </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9">
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
         <v>3</v>
       </c>
-      <c r="N9">
+      <c r="Q9">
         <v>2</v>
       </c>
-      <c r="O9">
+      <c r="R9">
         <v>4</v>
       </c>
-      <c r="P9">
+      <c r="S9">
         <v>12</v>
       </c>
-      <c r="Q9">
-        <v>0</v>
-      </c>
-      <c r="R9">
-        <v>0</v>
-      </c>
-      <c r="S9">
-        <v>0</v>
-      </c>
       <c r="T9">
         <v>0</v>
       </c>
@@ -2816,20 +2906,20 @@
         <v>0</v>
       </c>
       <c r="Y9">
+        <v>0</v>
+      </c>
+      <c r="Z9">
+        <v>0</v>
+      </c>
+      <c r="AA9">
+        <v>0</v>
+      </c>
+      <c r="AB9">
         <v>0.1162</v>
       </c>
-      <c r="Z9">
+      <c r="AC9">
         <v>0.4647</v>
       </c>
-      <c r="AA9">
-        <v>0</v>
-      </c>
-      <c r="AB9">
-        <v>0</v>
-      </c>
-      <c r="AC9">
-        <v>0</v>
-      </c>
       <c r="AD9">
         <v>0</v>
       </c>
@@ -2879,447 +2969,465 @@
         <v>0</v>
       </c>
       <c r="AT9">
+        <v>0</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
         <v>1</v>
       </c>
-      <c r="AU9">
+      <c r="AX9">
         <v>10567</v>
       </c>
-      <c r="AV9">
+      <c r="AY9">
         <v>306.8829</v>
       </c>
-      <c r="AW9">
+      <c r="AZ9">
         <v>0.211053</v>
       </c>
-      <c r="AX9">
+      <c r="BA9">
         <v>15</v>
       </c>
-      <c r="AY9">
+      <c r="BB9">
         <v>0.4356</v>
       </c>
-      <c r="AZ9">
+      <c r="BC9">
         <v>9</v>
       </c>
-      <c r="BA9">
+      <c r="BD9">
         <v>0.2614</v>
       </c>
-      <c r="BB9">
+      <c r="BE9">
         <v>5</v>
       </c>
-      <c r="BC9">
+      <c r="BF9">
         <v>35</v>
       </c>
-      <c r="BD9">
+      <c r="BG9">
         <v>1.0165</v>
       </c>
-      <c r="BE9">
+      <c r="BH9">
         <v>10963</v>
       </c>
-      <c r="BF9">
+      <c r="BI9">
         <v>6473</v>
       </c>
-      <c r="BG9">
+      <c r="BJ9">
         <v>187.9864</v>
       </c>
-      <c r="BH9">
+      <c r="BK9">
         <v>0.223717</v>
       </c>
-      <c r="BI9">
+      <c r="BL9">
         <v>11088</v>
       </c>
-      <c r="BJ9">
-        <v>0</v>
-      </c>
-      <c r="BK9">
+      <c r="BM9">
+        <v>0</v>
+      </c>
+      <c r="BN9">
         <v>272</v>
       </c>
-      <c r="BL9">
+      <c r="BO9">
         <v>264</v>
       </c>
-      <c r="BM9">
+      <c r="BP9">
         <v>8</v>
       </c>
-      <c r="BN9">
+      <c r="BQ9">
         <v>8</v>
       </c>
-      <c r="BO9">
-        <v>0</v>
-      </c>
-      <c r="BP9">
+      <c r="BR9">
+        <v>0</v>
+      </c>
+      <c r="BS9">
         <v>7.8993</v>
       </c>
-      <c r="BQ9">
+      <c r="BT9">
         <v>2899</v>
       </c>
-      <c r="BR9">
+      <c r="BU9">
         <v>2760</v>
       </c>
-      <c r="BS9">
+      <c r="BV9">
         <v>66</v>
       </c>
-      <c r="BT9">
+      <c r="BW9">
         <v>3479</v>
       </c>
-      <c r="BU9">
+      <c r="BX9">
         <v>3057</v>
       </c>
-      <c r="BV9">
+      <c r="BY9">
         <v>85</v>
       </c>
-      <c r="BW9">
+      <c r="BZ9">
         <v>-580</v>
       </c>
-      <c r="BX9">
+      <c r="CA9">
         <v>-297</v>
       </c>
-      <c r="BY9">
+      <c r="CB9">
         <v>-19</v>
       </c>
-      <c r="BZ9">
+      <c r="CC9">
         <v>4602</v>
       </c>
-      <c r="CA9">
+      <c r="CD9">
         <v>4950</v>
       </c>
-      <c r="CB9">
+      <c r="CE9">
         <v>114</v>
       </c>
-      <c r="CC9">
+      <c r="CF9">
         <v>5677</v>
       </c>
-      <c r="CD9">
+      <c r="CG9">
         <v>5200</v>
       </c>
-      <c r="CE9">
+      <c r="CH9">
         <v>139</v>
       </c>
-      <c r="CF9">
+      <c r="CI9">
         <v>-1075</v>
       </c>
-      <c r="CG9">
+      <c r="CJ9">
         <v>-250</v>
       </c>
-      <c r="CH9">
+      <c r="CK9">
         <v>-25</v>
       </c>
     </row>
-    <row r="10" spans="1:86">
+    <row r="10" spans="1:89">
       <c r="A10" s="1">
-        <v>3560</v>
+        <v>6584</v>
       </c>
       <c r="B10" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10">
+        <v>88</v>
+      </c>
+      <c r="C10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D10">
+        <v>2020</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="D10">
+      <c r="G10">
         <v>10.03</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" t="s">
+        <v>93</v>
+      </c>
+      <c r="K10" t="s">
+        <v>94</v>
+      </c>
+      <c r="L10" t="s">
+        <v>99</v>
+      </c>
+      <c r="M10">
+        <v>1779</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>3</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>4</v>
+      </c>
+      <c r="S10">
+        <v>17</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>0</v>
+      </c>
+      <c r="X10">
+        <v>0</v>
+      </c>
+      <c r="Y10">
+        <v>0</v>
+      </c>
+      <c r="Z10">
+        <v>0</v>
+      </c>
+      <c r="AA10">
+        <v>0</v>
+      </c>
+      <c r="AB10">
+        <v>0.1349</v>
+      </c>
+      <c r="AC10">
+        <v>0.7083</v>
+      </c>
+      <c r="AD10">
+        <v>0</v>
+      </c>
+      <c r="AE10">
+        <v>0</v>
+      </c>
+      <c r="AF10">
+        <v>0</v>
+      </c>
+      <c r="AG10">
+        <v>0</v>
+      </c>
+      <c r="AH10">
+        <v>0</v>
+      </c>
+      <c r="AI10">
+        <v>0</v>
+      </c>
+      <c r="AJ10">
+        <v>0</v>
+      </c>
+      <c r="AK10">
+        <v>0</v>
+      </c>
+      <c r="AL10">
+        <v>0</v>
+      </c>
+      <c r="AM10">
+        <v>0</v>
+      </c>
+      <c r="AN10">
+        <v>0</v>
+      </c>
+      <c r="AO10">
+        <v>0</v>
+      </c>
+      <c r="AP10">
+        <v>0</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>0</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>1</v>
+      </c>
+      <c r="AX10">
+        <v>5447</v>
+      </c>
+      <c r="AY10">
+        <v>183.7099</v>
+      </c>
+      <c r="AZ10">
+        <v>0.191371</v>
+      </c>
+      <c r="BA10">
+        <v>12</v>
+      </c>
+      <c r="BB10">
+        <v>0.4047</v>
+      </c>
+      <c r="BC10">
+        <v>7</v>
+      </c>
+      <c r="BD10">
+        <v>0.2361</v>
+      </c>
+      <c r="BE10">
+        <v>5</v>
+      </c>
+      <c r="BF10">
+        <v>31</v>
+      </c>
+      <c r="BG10">
+        <v>1.0455</v>
+      </c>
+      <c r="BH10">
+        <v>10795</v>
+      </c>
+      <c r="BI10">
+        <v>6890</v>
+      </c>
+      <c r="BJ10">
+        <v>232.3777</v>
+      </c>
+      <c r="BK10">
+        <v>0.277104</v>
+      </c>
+      <c r="BL10">
+        <v>10275</v>
+      </c>
+      <c r="BM10">
+        <v>0</v>
+      </c>
+      <c r="BN10">
+        <v>278</v>
+      </c>
+      <c r="BO10">
+        <v>265</v>
+      </c>
+      <c r="BP10">
+        <v>13</v>
+      </c>
+      <c r="BQ10">
+        <v>9</v>
+      </c>
+      <c r="BR10">
+        <v>0</v>
+      </c>
+      <c r="BS10">
+        <v>9.376099999999999</v>
+      </c>
+      <c r="BT10">
+        <v>3714</v>
+      </c>
+      <c r="BU10">
+        <v>3224</v>
+      </c>
+      <c r="BV10">
         <v>87</v>
       </c>
-      <c r="F10" t="s">
+      <c r="BW10">
+        <v>3287</v>
+      </c>
+      <c r="BX10">
+        <v>3126</v>
+      </c>
+      <c r="BY10">
+        <v>86</v>
+      </c>
+      <c r="BZ10">
+        <v>427</v>
+      </c>
+      <c r="CA10">
+        <v>98</v>
+      </c>
+      <c r="CB10">
+        <v>1</v>
+      </c>
+      <c r="CC10">
+        <v>5811</v>
+      </c>
+      <c r="CD10">
+        <v>6201</v>
+      </c>
+      <c r="CE10">
+        <v>159</v>
+      </c>
+      <c r="CF10">
+        <v>5318</v>
+      </c>
+      <c r="CG10">
+        <v>5311</v>
+      </c>
+      <c r="CH10">
+        <v>146</v>
+      </c>
+      <c r="CI10">
+        <v>493</v>
+      </c>
+      <c r="CJ10">
+        <v>890</v>
+      </c>
+      <c r="CK10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:89">
+      <c r="A11" s="1">
+        <v>6951</v>
+      </c>
+      <c r="B11" t="s">
         <v>88</v>
       </c>
-      <c r="G10" t="s">
+      <c r="C11" t="s">
         <v>89</v>
       </c>
-      <c r="H10" t="s">
-        <v>90</v>
-      </c>
-      <c r="I10" t="s">
-        <v>95</v>
-      </c>
-      <c r="J10">
-        <v>1779</v>
-      </c>
-      <c r="K10">
-        <v>0</v>
-      </c>
-      <c r="L10">
+      <c r="D11">
+        <v>2020</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
         <v>1</v>
       </c>
-      <c r="M10">
-        <v>3</v>
-      </c>
-      <c r="N10">
-        <v>0</v>
-      </c>
-      <c r="O10">
-        <v>4</v>
-      </c>
-      <c r="P10">
-        <v>17</v>
-      </c>
-      <c r="Q10">
-        <v>0</v>
-      </c>
-      <c r="R10">
-        <v>0</v>
-      </c>
-      <c r="S10">
-        <v>0</v>
-      </c>
-      <c r="T10">
-        <v>0</v>
-      </c>
-      <c r="U10">
-        <v>0</v>
-      </c>
-      <c r="V10">
-        <v>0</v>
-      </c>
-      <c r="W10">
-        <v>0</v>
-      </c>
-      <c r="X10">
-        <v>0</v>
-      </c>
-      <c r="Y10">
-        <v>0.1349</v>
-      </c>
-      <c r="Z10">
-        <v>0.7083</v>
-      </c>
-      <c r="AA10">
-        <v>0</v>
-      </c>
-      <c r="AB10">
-        <v>0</v>
-      </c>
-      <c r="AC10">
-        <v>0</v>
-      </c>
-      <c r="AD10">
-        <v>0</v>
-      </c>
-      <c r="AE10">
-        <v>0</v>
-      </c>
-      <c r="AF10">
-        <v>0</v>
-      </c>
-      <c r="AG10">
-        <v>0</v>
-      </c>
-      <c r="AH10">
-        <v>0</v>
-      </c>
-      <c r="AI10">
-        <v>0</v>
-      </c>
-      <c r="AJ10">
-        <v>0</v>
-      </c>
-      <c r="AK10">
-        <v>0</v>
-      </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
-        <v>0</v>
-      </c>
-      <c r="AN10">
-        <v>0</v>
-      </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
-        <v>0</v>
-      </c>
-      <c r="AR10">
-        <v>0</v>
-      </c>
-      <c r="AS10">
-        <v>0</v>
-      </c>
-      <c r="AT10">
-        <v>1</v>
-      </c>
-      <c r="AU10">
-        <v>5447</v>
-      </c>
-      <c r="AV10">
-        <v>183.7099</v>
-      </c>
-      <c r="AW10">
-        <v>0.191371</v>
-      </c>
-      <c r="AX10">
-        <v>12</v>
-      </c>
-      <c r="AY10">
-        <v>0.4047</v>
-      </c>
-      <c r="AZ10">
-        <v>7</v>
-      </c>
-      <c r="BA10">
-        <v>0.2361</v>
-      </c>
-      <c r="BB10">
-        <v>5</v>
-      </c>
-      <c r="BC10">
-        <v>31</v>
-      </c>
-      <c r="BD10">
-        <v>1.0455</v>
-      </c>
-      <c r="BE10">
-        <v>10795</v>
-      </c>
-      <c r="BF10">
-        <v>6890</v>
-      </c>
-      <c r="BG10">
-        <v>232.3777</v>
-      </c>
-      <c r="BH10">
-        <v>0.277104</v>
-      </c>
-      <c r="BI10">
-        <v>10275</v>
-      </c>
-      <c r="BJ10">
-        <v>0</v>
-      </c>
-      <c r="BK10">
-        <v>278</v>
-      </c>
-      <c r="BL10">
-        <v>265</v>
-      </c>
-      <c r="BM10">
-        <v>13</v>
-      </c>
-      <c r="BN10">
-        <v>9</v>
-      </c>
-      <c r="BO10">
-        <v>0</v>
-      </c>
-      <c r="BP10">
-        <v>9.376099999999999</v>
-      </c>
-      <c r="BQ10">
-        <v>3714</v>
-      </c>
-      <c r="BR10">
-        <v>3224</v>
-      </c>
-      <c r="BS10">
-        <v>87</v>
-      </c>
-      <c r="BT10">
-        <v>3287</v>
-      </c>
-      <c r="BU10">
-        <v>3126</v>
-      </c>
-      <c r="BV10">
-        <v>86</v>
-      </c>
-      <c r="BW10">
-        <v>427</v>
-      </c>
-      <c r="BX10">
-        <v>98</v>
-      </c>
-      <c r="BY10">
-        <v>1</v>
-      </c>
-      <c r="BZ10">
-        <v>5811</v>
-      </c>
-      <c r="CA10">
-        <v>6201</v>
-      </c>
-      <c r="CB10">
-        <v>159</v>
-      </c>
-      <c r="CC10">
-        <v>5318</v>
-      </c>
-      <c r="CD10">
-        <v>5311</v>
-      </c>
-      <c r="CE10">
-        <v>146</v>
-      </c>
-      <c r="CF10">
-        <v>493</v>
-      </c>
-      <c r="CG10">
-        <v>890</v>
-      </c>
-      <c r="CH10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:86">
-      <c r="A11" s="1">
-        <v>3711</v>
-      </c>
-      <c r="B11" t="s">
-        <v>85</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
+      <c r="G11">
         <v>10.03</v>
-      </c>
-      <c r="E11" t="s">
-        <v>86</v>
-      </c>
-      <c r="F11" t="s">
-        <v>88</v>
-      </c>
-      <c r="G11" t="s">
-        <v>89</v>
       </c>
       <c r="H11" t="s">
         <v>90</v>
       </c>
       <c r="I11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J11" t="s">
         <v>93</v>
       </c>
-      <c r="J11">
+      <c r="K11" t="s">
+        <v>94</v>
+      </c>
+      <c r="L11" t="s">
+        <v>97</v>
+      </c>
+      <c r="M11">
         <v>1741</v>
       </c>
-      <c r="K11">
-        <v>0</v>
-      </c>
-      <c r="L11">
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
         <v>2</v>
       </c>
-      <c r="M11">
+      <c r="P11">
         <v>2</v>
       </c>
-      <c r="N11">
+      <c r="Q11">
         <v>1</v>
       </c>
-      <c r="O11">
+      <c r="R11">
         <v>4</v>
       </c>
-      <c r="P11">
+      <c r="S11">
         <v>10</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
       <c r="T11">
         <v>0</v>
       </c>
@@ -3333,23 +3441,23 @@
         <v>0</v>
       </c>
       <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
         <v>1</v>
       </c>
-      <c r="Y11">
+      <c r="AB11">
         <v>0.1379</v>
       </c>
-      <c r="Z11">
+      <c r="AC11">
         <v>0.4825</v>
       </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>0</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
       <c r="AD11">
         <v>0</v>
       </c>
@@ -3399,127 +3507,1212 @@
         <v>0</v>
       </c>
       <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
         <v>1</v>
       </c>
-      <c r="AU11">
+      <c r="AX11">
         <v>9096</v>
       </c>
-      <c r="AV11">
+      <c r="AY11">
         <v>313.475</v>
       </c>
-      <c r="AW11">
+      <c r="AZ11">
         <v>0.195693</v>
       </c>
-      <c r="AX11">
+      <c r="BA11">
         <v>13</v>
       </c>
-      <c r="AY11">
+      <c r="BB11">
         <v>0.448</v>
       </c>
-      <c r="AZ11">
+      <c r="BC11">
         <v>4</v>
       </c>
-      <c r="BA11">
+      <c r="BD11">
         <v>0.1379</v>
       </c>
-      <c r="BB11">
+      <c r="BE11">
         <v>6</v>
       </c>
-      <c r="BC11">
+      <c r="BF11">
         <v>23</v>
       </c>
-      <c r="BD11">
+      <c r="BG11">
         <v>0.7926</v>
       </c>
-      <c r="BE11">
+      <c r="BH11">
         <v>10471</v>
       </c>
-      <c r="BF11">
+      <c r="BI11">
         <v>6644</v>
       </c>
-      <c r="BG11">
+      <c r="BJ11">
         <v>228.9719</v>
       </c>
-      <c r="BH11">
+      <c r="BK11">
         <v>0.285547</v>
       </c>
-      <c r="BI11">
+      <c r="BL11">
         <v>10800</v>
       </c>
-      <c r="BJ11">
-        <v>0</v>
-      </c>
-      <c r="BK11">
+      <c r="BM11">
+        <v>0</v>
+      </c>
+      <c r="BN11">
         <v>216</v>
       </c>
-      <c r="BL11">
+      <c r="BO11">
         <v>216</v>
       </c>
-      <c r="BM11">
-        <v>0</v>
-      </c>
-      <c r="BN11">
-        <v>0</v>
-      </c>
-      <c r="BO11">
-        <v>0</v>
-      </c>
       <c r="BP11">
+        <v>0</v>
+      </c>
+      <c r="BQ11">
+        <v>0</v>
+      </c>
+      <c r="BR11">
+        <v>0</v>
+      </c>
+      <c r="BS11">
         <v>7.444</v>
       </c>
-      <c r="BQ11">
+      <c r="BT11">
         <v>2921</v>
       </c>
-      <c r="BR11">
+      <c r="BU11">
         <v>2667</v>
       </c>
-      <c r="BS11">
+      <c r="BV11">
         <v>60</v>
       </c>
-      <c r="BT11">
+      <c r="BW11">
         <v>3330</v>
       </c>
-      <c r="BU11">
+      <c r="BX11">
         <v>3244</v>
       </c>
-      <c r="BV11">
+      <c r="BY11">
         <v>10</v>
       </c>
-      <c r="BW11">
+      <c r="BZ11">
         <v>-409</v>
       </c>
-      <c r="BX11">
+      <c r="CA11">
         <v>-577</v>
       </c>
-      <c r="BY11">
+      <c r="CB11">
         <v>50</v>
       </c>
-      <c r="BZ11">
+      <c r="CC11">
         <v>4732</v>
       </c>
-      <c r="CA11">
+      <c r="CD11">
         <v>4486</v>
       </c>
-      <c r="CB11">
+      <c r="CE11">
         <v>106</v>
       </c>
-      <c r="CC11">
+      <c r="CF11">
         <v>5215</v>
       </c>
-      <c r="CD11">
+      <c r="CG11">
         <v>4617</v>
       </c>
-      <c r="CE11">
+      <c r="CH11">
         <v>19</v>
       </c>
-      <c r="CF11">
+      <c r="CI11">
         <v>-483</v>
       </c>
-      <c r="CG11">
+      <c r="CJ11">
         <v>-131</v>
       </c>
-      <c r="CH11">
+      <c r="CK11">
         <v>87</v>
+      </c>
+    </row>
+    <row r="12" spans="1:89">
+      <c r="A12" s="1">
+        <v>32331</v>
+      </c>
+      <c r="B12" t="s">
+        <v>88</v>
+      </c>
+      <c r="C12" t="s">
+        <v>89</v>
+      </c>
+      <c r="D12">
+        <v>2020</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12">
+        <v>10.11</v>
+      </c>
+      <c r="H12" t="s">
+        <v>90</v>
+      </c>
+      <c r="I12" t="s">
+        <v>92</v>
+      </c>
+      <c r="J12" t="s">
+        <v>93</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>100</v>
+      </c>
+      <c r="M12">
+        <v>1871</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>1</v>
+      </c>
+      <c r="P12">
+        <v>3</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>6</v>
+      </c>
+      <c r="S12">
+        <v>19</v>
+      </c>
+      <c r="T12">
+        <v>0</v>
+      </c>
+      <c r="U12">
+        <v>0</v>
+      </c>
+      <c r="V12">
+        <v>0</v>
+      </c>
+      <c r="W12">
+        <v>0</v>
+      </c>
+      <c r="X12">
+        <v>0</v>
+      </c>
+      <c r="Y12">
+        <v>0</v>
+      </c>
+      <c r="Z12">
+        <v>0</v>
+      </c>
+      <c r="AA12">
+        <v>0</v>
+      </c>
+      <c r="AB12">
+        <v>0.1924</v>
+      </c>
+      <c r="AC12">
+        <v>0.8017</v>
+      </c>
+      <c r="AD12">
+        <v>0</v>
+      </c>
+      <c r="AE12">
+        <v>0</v>
+      </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12">
+        <v>0</v>
+      </c>
+      <c r="AL12">
+        <v>0</v>
+      </c>
+      <c r="AM12">
+        <v>0</v>
+      </c>
+      <c r="AN12">
+        <v>0</v>
+      </c>
+      <c r="AO12">
+        <v>0</v>
+      </c>
+      <c r="AP12">
+        <v>0</v>
+      </c>
+      <c r="AQ12">
+        <v>0</v>
+      </c>
+      <c r="AR12">
+        <v>0</v>
+      </c>
+      <c r="AS12">
+        <v>0</v>
+      </c>
+      <c r="AT12">
+        <v>0</v>
+      </c>
+      <c r="AU12">
+        <v>0</v>
+      </c>
+      <c r="AV12">
+        <v>0</v>
+      </c>
+      <c r="AW12">
+        <v>1</v>
+      </c>
+      <c r="AX12">
+        <v>8104</v>
+      </c>
+      <c r="AY12">
+        <v>259.8824</v>
+      </c>
+      <c r="AZ12">
+        <v>0.142373</v>
+      </c>
+      <c r="BA12">
+        <v>12</v>
+      </c>
+      <c r="BB12">
+        <v>0.3848</v>
+      </c>
+      <c r="BC12">
+        <v>7</v>
+      </c>
+      <c r="BD12">
+        <v>0.2245</v>
+      </c>
+      <c r="BE12">
+        <v>4</v>
+      </c>
+      <c r="BF12">
+        <v>30</v>
+      </c>
+      <c r="BG12">
+        <v>0.9621</v>
+      </c>
+      <c r="BH12">
+        <v>11523</v>
+      </c>
+      <c r="BI12">
+        <v>7431</v>
+      </c>
+      <c r="BJ12">
+        <v>238.3004</v>
+      </c>
+      <c r="BK12">
+        <v>0.262251</v>
+      </c>
+      <c r="BL12">
+        <v>11500</v>
+      </c>
+      <c r="BM12">
+        <v>0</v>
+      </c>
+      <c r="BN12">
+        <v>284</v>
+      </c>
+      <c r="BO12">
+        <v>277</v>
+      </c>
+      <c r="BP12">
+        <v>7</v>
+      </c>
+      <c r="BQ12">
+        <v>7</v>
+      </c>
+      <c r="BR12">
+        <v>0</v>
+      </c>
+      <c r="BS12">
+        <v>9.1074</v>
+      </c>
+      <c r="BT12">
+        <v>3372</v>
+      </c>
+      <c r="BU12">
+        <v>3795</v>
+      </c>
+      <c r="BV12">
+        <v>93</v>
+      </c>
+      <c r="BW12">
+        <v>3391</v>
+      </c>
+      <c r="BX12">
+        <v>3815</v>
+      </c>
+      <c r="BY12">
+        <v>93</v>
+      </c>
+      <c r="BZ12">
+        <v>-19</v>
+      </c>
+      <c r="CA12">
+        <v>-20</v>
+      </c>
+      <c r="CB12">
+        <v>0</v>
+      </c>
+      <c r="CC12">
+        <v>5111</v>
+      </c>
+      <c r="CD12">
+        <v>6461</v>
+      </c>
+      <c r="CE12">
+        <v>148</v>
+      </c>
+      <c r="CF12">
+        <v>5160</v>
+      </c>
+      <c r="CG12">
+        <v>6248</v>
+      </c>
+      <c r="CH12">
+        <v>148</v>
+      </c>
+      <c r="CI12">
+        <v>-49</v>
+      </c>
+      <c r="CJ12">
+        <v>213</v>
+      </c>
+      <c r="CK12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:89">
+      <c r="A13" s="1">
+        <v>32739</v>
+      </c>
+      <c r="B13" t="s">
+        <v>88</v>
+      </c>
+      <c r="C13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D13">
+        <v>2020</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>10.11</v>
+      </c>
+      <c r="H13" t="s">
+        <v>90</v>
+      </c>
+      <c r="I13" t="s">
+        <v>92</v>
+      </c>
+      <c r="J13" t="s">
+        <v>93</v>
+      </c>
+      <c r="K13" t="s">
+        <v>94</v>
+      </c>
+      <c r="L13" t="s">
+        <v>98</v>
+      </c>
+      <c r="M13">
+        <v>2089</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>3</v>
+      </c>
+      <c r="P13">
+        <v>4</v>
+      </c>
+      <c r="Q13">
+        <v>1</v>
+      </c>
+      <c r="R13">
+        <v>8</v>
+      </c>
+      <c r="S13">
+        <v>16</v>
+      </c>
+      <c r="T13">
+        <v>0</v>
+      </c>
+      <c r="U13">
+        <v>0</v>
+      </c>
+      <c r="V13">
+        <v>0</v>
+      </c>
+      <c r="W13">
+        <v>0</v>
+      </c>
+      <c r="X13">
+        <v>0</v>
+      </c>
+      <c r="Y13">
+        <v>0</v>
+      </c>
+      <c r="Z13">
+        <v>0</v>
+      </c>
+      <c r="AA13">
+        <v>0</v>
+      </c>
+      <c r="AB13">
+        <v>0.2298</v>
+      </c>
+      <c r="AC13">
+        <v>0.6893</v>
+      </c>
+      <c r="AD13">
+        <v>0</v>
+      </c>
+      <c r="AE13">
+        <v>0</v>
+      </c>
+      <c r="AF13">
+        <v>0</v>
+      </c>
+      <c r="AG13">
+        <v>0</v>
+      </c>
+      <c r="AH13">
+        <v>0</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13">
+        <v>0</v>
+      </c>
+      <c r="AL13">
+        <v>0</v>
+      </c>
+      <c r="AM13">
+        <v>0</v>
+      </c>
+      <c r="AN13">
+        <v>0</v>
+      </c>
+      <c r="AO13">
+        <v>0</v>
+      </c>
+      <c r="AP13">
+        <v>0</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>0</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0</v>
+      </c>
+      <c r="AW13">
+        <v>1</v>
+      </c>
+      <c r="AX13">
+        <v>11780</v>
+      </c>
+      <c r="AY13">
+        <v>338.3437</v>
+      </c>
+      <c r="AZ13">
+        <v>0.232476</v>
+      </c>
+      <c r="BA13">
+        <v>18</v>
+      </c>
+      <c r="BB13">
+        <v>0.517</v>
+      </c>
+      <c r="BC13">
+        <v>13</v>
+      </c>
+      <c r="BD13">
+        <v>0.3734</v>
+      </c>
+      <c r="BE13">
+        <v>7</v>
+      </c>
+      <c r="BF13">
+        <v>55</v>
+      </c>
+      <c r="BG13">
+        <v>1.5797</v>
+      </c>
+      <c r="BH13">
+        <v>13590</v>
+      </c>
+      <c r="BI13">
+        <v>9053</v>
+      </c>
+      <c r="BJ13">
+        <v>260.0191</v>
+      </c>
+      <c r="BK13">
+        <v>0.274785</v>
+      </c>
+      <c r="BL13">
+        <v>13725</v>
+      </c>
+      <c r="BM13">
+        <v>0</v>
+      </c>
+      <c r="BN13">
+        <v>340</v>
+      </c>
+      <c r="BO13">
+        <v>316</v>
+      </c>
+      <c r="BP13">
+        <v>24</v>
+      </c>
+      <c r="BQ13">
+        <v>19</v>
+      </c>
+      <c r="BR13">
+        <v>0</v>
+      </c>
+      <c r="BS13">
+        <v>9.7654</v>
+      </c>
+      <c r="BT13">
+        <v>3522</v>
+      </c>
+      <c r="BU13">
+        <v>3398</v>
+      </c>
+      <c r="BV13">
+        <v>86</v>
+      </c>
+      <c r="BW13">
+        <v>3149</v>
+      </c>
+      <c r="BX13">
+        <v>3164</v>
+      </c>
+      <c r="BY13">
+        <v>81</v>
+      </c>
+      <c r="BZ13">
+        <v>373</v>
+      </c>
+      <c r="CA13">
+        <v>234</v>
+      </c>
+      <c r="CB13">
+        <v>5</v>
+      </c>
+      <c r="CC13">
+        <v>5528</v>
+      </c>
+      <c r="CD13">
+        <v>5503</v>
+      </c>
+      <c r="CE13">
+        <v>139</v>
+      </c>
+      <c r="CF13">
+        <v>5595</v>
+      </c>
+      <c r="CG13">
+        <v>5105</v>
+      </c>
+      <c r="CH13">
+        <v>130</v>
+      </c>
+      <c r="CI13">
+        <v>-67</v>
+      </c>
+      <c r="CJ13">
+        <v>398</v>
+      </c>
+      <c r="CK13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:89">
+      <c r="A14" s="1">
+        <v>34491</v>
+      </c>
+      <c r="B14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C14" t="s">
+        <v>89</v>
+      </c>
+      <c r="D14">
+        <v>2020</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>10.12</v>
+      </c>
+      <c r="H14" t="s">
+        <v>90</v>
+      </c>
+      <c r="I14" t="s">
+        <v>92</v>
+      </c>
+      <c r="J14" t="s">
+        <v>93</v>
+      </c>
+      <c r="K14" t="s">
+        <v>94</v>
+      </c>
+      <c r="L14" t="s">
+        <v>96</v>
+      </c>
+      <c r="M14">
+        <v>1828</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>5</v>
+      </c>
+      <c r="Q14">
+        <v>1</v>
+      </c>
+      <c r="R14">
+        <v>3</v>
+      </c>
+      <c r="S14">
+        <v>23</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>0</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0.0985</v>
+      </c>
+      <c r="AC14">
+        <v>0.8534</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>0</v>
+      </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14">
+        <v>0</v>
+      </c>
+      <c r="AL14">
+        <v>0</v>
+      </c>
+      <c r="AM14">
+        <v>0</v>
+      </c>
+      <c r="AN14">
+        <v>0</v>
+      </c>
+      <c r="AO14">
+        <v>0</v>
+      </c>
+      <c r="AP14">
+        <v>0</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0</v>
+      </c>
+      <c r="AT14">
+        <v>0</v>
+      </c>
+      <c r="AU14">
+        <v>0</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>0</v>
+      </c>
+      <c r="AX14">
+        <v>13993</v>
+      </c>
+      <c r="AY14">
+        <v>459.2888</v>
+      </c>
+      <c r="AZ14">
+        <v>0.273109</v>
+      </c>
+      <c r="BA14">
+        <v>12</v>
+      </c>
+      <c r="BB14">
+        <v>0.3939</v>
+      </c>
+      <c r="BC14">
+        <v>1</v>
+      </c>
+      <c r="BD14">
+        <v>0.0328</v>
+      </c>
+      <c r="BE14">
+        <v>3</v>
+      </c>
+      <c r="BF14">
+        <v>21</v>
+      </c>
+      <c r="BG14">
+        <v>0.6893</v>
+      </c>
+      <c r="BH14">
+        <v>11205</v>
+      </c>
+      <c r="BI14">
+        <v>7200</v>
+      </c>
+      <c r="BJ14">
+        <v>236.3239</v>
+      </c>
+      <c r="BK14">
+        <v>0.291682</v>
+      </c>
+      <c r="BL14">
+        <v>10925</v>
+      </c>
+      <c r="BM14">
+        <v>0</v>
+      </c>
+      <c r="BN14">
+        <v>286</v>
+      </c>
+      <c r="BO14">
+        <v>282</v>
+      </c>
+      <c r="BP14">
+        <v>4</v>
+      </c>
+      <c r="BQ14">
+        <v>4</v>
+      </c>
+      <c r="BR14">
+        <v>0</v>
+      </c>
+      <c r="BS14">
+        <v>9.3873</v>
+      </c>
+      <c r="BT14">
+        <v>3600</v>
+      </c>
+      <c r="BU14">
+        <v>3737</v>
+      </c>
+      <c r="BV14">
+        <v>93</v>
+      </c>
+      <c r="BW14">
+        <v>3459</v>
+      </c>
+      <c r="BX14">
+        <v>3109</v>
+      </c>
+      <c r="BY14">
+        <v>84</v>
+      </c>
+      <c r="BZ14">
+        <v>141</v>
+      </c>
+      <c r="CA14">
+        <v>628</v>
+      </c>
+      <c r="CB14">
+        <v>9</v>
+      </c>
+      <c r="CC14">
+        <v>5331</v>
+      </c>
+      <c r="CD14">
+        <v>5542</v>
+      </c>
+      <c r="CE14">
+        <v>133</v>
+      </c>
+      <c r="CF14">
+        <v>5562</v>
+      </c>
+      <c r="CG14">
+        <v>5849</v>
+      </c>
+      <c r="CH14">
+        <v>139</v>
+      </c>
+      <c r="CI14">
+        <v>-231</v>
+      </c>
+      <c r="CJ14">
+        <v>-307</v>
+      </c>
+      <c r="CK14">
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:89">
+      <c r="A15" s="1">
+        <v>35960</v>
+      </c>
+      <c r="B15" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" t="s">
+        <v>89</v>
+      </c>
+      <c r="D15">
+        <v>2020</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>10.12</v>
+      </c>
+      <c r="H15" t="s">
+        <v>91</v>
+      </c>
+      <c r="I15" t="s">
+        <v>92</v>
+      </c>
+      <c r="J15" t="s">
+        <v>93</v>
+      </c>
+      <c r="K15" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15">
+        <v>1918</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>3</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>13</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>0</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>0</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0.0313</v>
+      </c>
+      <c r="AC15">
+        <v>0.438</v>
+      </c>
+      <c r="AD15">
+        <v>0</v>
+      </c>
+      <c r="AE15">
+        <v>0</v>
+      </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
+      <c r="AI15">
+        <v>0</v>
+      </c>
+      <c r="AJ15">
+        <v>0</v>
+      </c>
+      <c r="AK15">
+        <v>0</v>
+      </c>
+      <c r="AL15">
+        <v>0</v>
+      </c>
+      <c r="AM15">
+        <v>0</v>
+      </c>
+      <c r="AN15">
+        <v>0</v>
+      </c>
+      <c r="AO15">
+        <v>0</v>
+      </c>
+      <c r="AP15">
+        <v>0</v>
+      </c>
+      <c r="AQ15">
+        <v>0</v>
+      </c>
+      <c r="AR15">
+        <v>0</v>
+      </c>
+      <c r="AS15">
+        <v>0</v>
+      </c>
+      <c r="AT15">
+        <v>0</v>
+      </c>
+      <c r="AU15">
+        <v>0</v>
+      </c>
+      <c r="AV15">
+        <v>0</v>
+      </c>
+      <c r="AW15">
+        <v>2</v>
+      </c>
+      <c r="AX15">
+        <v>11704</v>
+      </c>
+      <c r="AY15">
+        <v>366.1314</v>
+      </c>
+      <c r="AZ15">
+        <v>0.263752</v>
+      </c>
+      <c r="BA15">
+        <v>12</v>
+      </c>
+      <c r="BB15">
+        <v>0.3754</v>
+      </c>
+      <c r="BC15">
+        <v>6</v>
+      </c>
+      <c r="BD15">
+        <v>0.1877</v>
+      </c>
+      <c r="BE15">
+        <v>3</v>
+      </c>
+      <c r="BF15">
+        <v>28</v>
+      </c>
+      <c r="BG15">
+        <v>0.8759</v>
+      </c>
+      <c r="BH15">
+        <v>10907</v>
+      </c>
+      <c r="BI15">
+        <v>6719</v>
+      </c>
+      <c r="BJ15">
+        <v>210.1877</v>
+      </c>
+      <c r="BK15">
+        <v>0.2673</v>
+      </c>
+      <c r="BL15">
+        <v>10975</v>
+      </c>
+      <c r="BM15">
+        <v>0</v>
+      </c>
+      <c r="BN15">
+        <v>273</v>
+      </c>
+      <c r="BO15">
+        <v>257</v>
+      </c>
+      <c r="BP15">
+        <v>16</v>
+      </c>
+      <c r="BQ15">
+        <v>16</v>
+      </c>
+      <c r="BR15">
+        <v>0</v>
+      </c>
+      <c r="BS15">
+        <v>8.540100000000001</v>
+      </c>
+      <c r="BT15">
+        <v>3212</v>
+      </c>
+      <c r="BU15">
+        <v>3430</v>
+      </c>
+      <c r="BV15">
+        <v>85</v>
+      </c>
+      <c r="BW15">
+        <v>3353</v>
+      </c>
+      <c r="BX15">
+        <v>3205</v>
+      </c>
+      <c r="BY15">
+        <v>91</v>
+      </c>
+      <c r="BZ15">
+        <v>-141</v>
+      </c>
+      <c r="CA15">
+        <v>225</v>
+      </c>
+      <c r="CB15">
+        <v>-6</v>
+      </c>
+      <c r="CC15">
+        <v>4729</v>
+      </c>
+      <c r="CD15">
+        <v>5228</v>
+      </c>
+      <c r="CE15">
+        <v>129</v>
+      </c>
+      <c r="CF15">
+        <v>5023</v>
+      </c>
+      <c r="CG15">
+        <v>5243</v>
+      </c>
+      <c r="CH15">
+        <v>142</v>
+      </c>
+      <c r="CI15">
+        <v>-294</v>
+      </c>
+      <c r="CJ15">
+        <v>-15</v>
+      </c>
+      <c r="CK15">
+        <v>-13</v>
       </c>
     </row>
   </sheetData>
